--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -22,7 +22,6 @@
     <definedName name="TitleRegion..BO60">'Project Planner'!$B$3:$B$4</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -175,7 +174,7 @@
     <t>Feature 08</t>
   </si>
   <si>
-    <t>Feature 09</t>
+    <t>Render Markdown</t>
   </si>
 </sst>
 </file>
@@ -1001,8 +1000,8 @@
   </sheetPr>
   <dimension ref="B1:AP30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1"/>
@@ -1222,7 +1221,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:42" ht="30" customHeight="1">
+    <row r="5" spans="2:42" ht="45" customHeight="1">
       <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
@@ -1242,7 +1241,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="2:42" ht="30" customHeight="1">
+    <row r="6" spans="2:42" ht="69" customHeight="1">
       <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
@@ -1262,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:42" ht="30" customHeight="1">
+    <row r="7" spans="2:42" ht="77.25" customHeight="1">
       <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
@@ -1282,7 +1281,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="8" spans="2:42" ht="30" customHeight="1">
+    <row r="8" spans="2:42" ht="74.25" customHeight="1">
       <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
@@ -1302,7 +1301,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="2:42" ht="30" customHeight="1">
+    <row r="9" spans="2:42" ht="82.5" customHeight="1">
       <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
@@ -1322,7 +1321,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="10" spans="2:42" ht="30" customHeight="1">
+    <row r="10" spans="2:42" ht="86.25" customHeight="1">
       <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
@@ -1362,7 +1361,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="2:42" ht="30" customHeight="1">
+    <row r="12" spans="2:42" ht="74.25" customHeight="1">
       <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
@@ -1382,7 +1381,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="2:42" ht="30" customHeight="1">
+    <row r="13" spans="2:42" ht="88.5" customHeight="1">
       <c r="B13" s="6" t="s">
         <v>23</v>
       </c>
@@ -1399,7 +1398,7 @@
         <v>6</v>
       </c>
       <c r="G13" s="8">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="2:42" ht="30" customHeight="1">

--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -1000,8 +1000,8 @@
   </sheetPr>
   <dimension ref="B1:AP30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1"/>
@@ -1238,7 +1238,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="8">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:42" ht="69" customHeight="1">
@@ -1258,7 +1258,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:42" ht="77.25" customHeight="1">
@@ -1278,7 +1278,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="8">
-        <v>0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:42" ht="74.25" customHeight="1">
@@ -1298,7 +1298,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:42" ht="82.5" customHeight="1">
@@ -1318,7 +1318,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="8">
-        <v>0.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:42" ht="86.25" customHeight="1">
@@ -1338,7 +1338,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="8">
-        <v>0.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:42" ht="30" customHeight="1">
@@ -1358,7 +1358,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:42" ht="74.25" customHeight="1">
@@ -1378,7 +1378,7 @@
         <v>5</v>
       </c>
       <c r="G12" s="8">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:42" ht="88.5" customHeight="1">
@@ -1395,10 +1395,10 @@
         <v>5</v>
       </c>
       <c r="F13" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G13" s="8">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:42" ht="30" customHeight="1">

--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -150,31 +150,31 @@
     <t>Feature</t>
   </si>
   <si>
-    <t>Feature 01</t>
-  </si>
-  <si>
-    <t>Feature 02</t>
-  </si>
-  <si>
-    <t>Feature 03</t>
-  </si>
-  <si>
-    <t>Feature 04</t>
-  </si>
-  <si>
-    <t>Feature 05</t>
-  </si>
-  <si>
     <t>Feature 06</t>
   </si>
   <si>
     <t>Feature 07</t>
   </si>
   <si>
-    <t>Feature 08</t>
-  </si>
-  <si>
     <t>Render Markdown</t>
+  </si>
+  <si>
+    <t>Download PDF</t>
+  </si>
+  <si>
+    <t>Signup</t>
+  </si>
+  <si>
+    <t>Login/Logout</t>
+  </si>
+  <si>
+    <t>Input flash cards</t>
+  </si>
+  <si>
+    <t>Pomodoro</t>
+  </si>
+  <si>
+    <t>Todo List</t>
   </si>
 </sst>
 </file>
@@ -1000,8 +1000,8 @@
   </sheetPr>
   <dimension ref="B1:AP30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1"/>
@@ -1223,59 +1223,59 @@
     </row>
     <row r="5" spans="2:42" ht="45" customHeight="1">
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D5" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F5" s="7">
         <v>4</v>
       </c>
       <c r="G5" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:42" ht="69" customHeight="1">
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
+        <v>22</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4</v>
+      </c>
+      <c r="E6" s="7">
+        <v>24</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2</v>
+      </c>
+      <c r="G6" s="8">
         <v>1</v>
-      </c>
-      <c r="D6" s="7">
-        <v>6</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7">
-        <v>6</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:42" ht="77.25" customHeight="1">
       <c r="B7" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" s="8">
         <v>0</v>
@@ -1283,19 +1283,19 @@
     </row>
     <row r="8" spans="2:42" ht="74.25" customHeight="1">
       <c r="B8" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F8" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G8" s="8">
         <v>0</v>
@@ -1303,19 +1303,19 @@
     </row>
     <row r="9" spans="2:42" ht="82.5" customHeight="1">
       <c r="B9" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F9" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G9" s="8">
         <v>0</v>
@@ -1323,79 +1323,79 @@
     </row>
     <row r="10" spans="2:42" ht="86.25" customHeight="1">
       <c r="B10" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F10" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G10" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:42" ht="30" customHeight="1">
+    <row r="11" spans="2:42" ht="76.5" customHeight="1">
       <c r="B11" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:42" ht="89.25" customHeight="1">
+      <c r="B12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="7">
+        <v>22</v>
+      </c>
+      <c r="D12" s="7">
+        <v>7</v>
+      </c>
+      <c r="E12" s="7">
+        <v>28</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:42" ht="94.5" customHeight="1">
+      <c r="B13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="7">
+        <v>18</v>
+      </c>
+      <c r="D13" s="7">
         <v>5</v>
       </c>
-      <c r="D11" s="7">
-        <v>4</v>
-      </c>
-      <c r="E11" s="7">
-        <v>5</v>
-      </c>
-      <c r="F11" s="7">
-        <v>3</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:42" ht="74.25" customHeight="1">
-      <c r="B12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="7">
-        <v>5</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2</v>
-      </c>
-      <c r="E12" s="7">
-        <v>5</v>
-      </c>
-      <c r="F12" s="7">
-        <v>5</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:42" ht="88.5" customHeight="1">
-      <c r="B13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="7">
-        <v>5</v>
-      </c>
-      <c r="D13" s="7">
-        <v>2</v>
-      </c>
       <c r="E13" s="7">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F13" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G13" s="8">
         <v>1</v>

--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -1000,8 +1000,8 @@
   </sheetPr>
   <dimension ref="B1:AP30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AZ10" sqref="AZ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1"/>
@@ -1369,13 +1369,13 @@
         <v>22</v>
       </c>
       <c r="D12" s="7">
+        <v>8</v>
+      </c>
+      <c r="E12" s="7">
+        <v>22</v>
+      </c>
+      <c r="F12" s="7">
         <v>7</v>
-      </c>
-      <c r="E12" s="7">
-        <v>28</v>
-      </c>
-      <c r="F12" s="7">
-        <v>2</v>
       </c>
       <c r="G12" s="8">
         <v>1</v>
@@ -1389,7 +1389,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E13" s="7">
         <v>19</v>

--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danhpham/Desktop/milestone2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE86495-3E6F-8649-86DB-11C4CCAC51C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-21720" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -180,8 +186,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -288,7 +294,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,6 +333,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,7 +486,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -589,29 +601,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="% complete" xfId="16"/>
-    <cellStyle name="% complete (beyond plan) legend" xfId="18"/>
-    <cellStyle name="Activity" xfId="2"/>
-    <cellStyle name="Actual (beyond plan) legend" xfId="17"/>
-    <cellStyle name="Actual legend" xfId="15"/>
+    <cellStyle name="% complete" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="% complete (beyond plan) legend" xfId="18" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Actual (beyond plan) legend" xfId="17" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Actual legend" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Explanatory Text" xfId="12" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Label" xfId="5"/>
+    <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Percent Complete" xfId="6"/>
-    <cellStyle name="Period Headers" xfId="3"/>
-    <cellStyle name="Period Highlight Control" xfId="7"/>
-    <cellStyle name="Period Value" xfId="13"/>
-    <cellStyle name="Plan legend" xfId="14"/>
-    <cellStyle name="Project Headers" xfId="4"/>
+    <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Period Headers" xfId="3" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Period Highlight Control" xfId="7" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Period Value" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Plan legend" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -993,27 +1124,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AP30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AZ10" sqref="AZ10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
-    <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
-    <col min="8" max="27" width="2.75" style="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
+    <col min="3" max="6" width="11.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="4" customWidth="1"/>
+    <col min="8" max="27" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:42" ht="60" customHeight="1" thickBot="1">
+    <row r="1" spans="2:42" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1023,7 +1154,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="2:42" ht="21" customHeight="1" thickTop="1" thickBot="1">
+    <row r="2" spans="2:42" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
         <v>13</v>
       </c>
@@ -1081,7 +1212,7 @@
       <c r="AO2" s="23"/>
       <c r="AP2" s="23"/>
     </row>
-    <row r="3" spans="2:42" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1">
+    <row r="3" spans="2:42" s="12" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B3" s="25" t="s">
         <v>14</v>
       </c>
@@ -1123,7 +1254,7 @@
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
     </row>
-    <row r="4" spans="2:42" ht="15.75" customHeight="1">
+    <row r="4" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="26"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -1221,7 +1352,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:42" ht="45" customHeight="1">
+    <row r="5" spans="2:42" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
@@ -1241,7 +1372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:42" ht="69" customHeight="1">
+    <row r="6" spans="2:42" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
@@ -1261,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:42" ht="77.25" customHeight="1">
+    <row r="7" spans="2:42" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
@@ -1281,7 +1412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:42" ht="74.25" customHeight="1">
+    <row r="8" spans="2:42" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
@@ -1298,10 +1429,16 @@
         <v>0</v>
       </c>
       <c r="G8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:42" ht="82.5" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="39"/>
+    </row>
+    <row r="9" spans="2:42" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>23</v>
       </c>
@@ -1318,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:42" ht="86.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:42" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
@@ -1341,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:42" ht="76.5" customHeight="1">
+    <row r="11" spans="2:42" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
@@ -1361,7 +1498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:42" ht="89.25" customHeight="1">
+    <row r="12" spans="2:42" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
@@ -1381,7 +1518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:42" ht="94.5" customHeight="1">
+    <row r="13" spans="2:42" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>17</v>
       </c>
@@ -1401,7 +1538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:42" ht="30" customHeight="1">
+    <row r="14" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1429,7 +1566,7 @@
       <c r="Z14"/>
       <c r="AA14"/>
     </row>
-    <row r="15" spans="2:42" ht="30" customHeight="1">
+    <row r="15" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
       <c r="C15" s="9"/>
       <c r="D15" s="7"/>
@@ -1457,7 +1594,7 @@
       <c r="Z15"/>
       <c r="AA15"/>
     </row>
-    <row r="16" spans="2:42" ht="30" customHeight="1">
+    <row r="16" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1485,7 +1622,7 @@
       <c r="Z16"/>
       <c r="AA16"/>
     </row>
-    <row r="17" spans="2:27" ht="30" customHeight="1">
+    <row r="17" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1513,7 +1650,7 @@
       <c r="Z17"/>
       <c r="AA17"/>
     </row>
-    <row r="18" spans="2:27" ht="30" customHeight="1">
+    <row r="18" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1541,7 +1678,7 @@
       <c r="Z18"/>
       <c r="AA18"/>
     </row>
-    <row r="19" spans="2:27" ht="30" customHeight="1">
+    <row r="19" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1569,7 +1706,7 @@
       <c r="Z19"/>
       <c r="AA19"/>
     </row>
-    <row r="20" spans="2:27" ht="30" customHeight="1">
+    <row r="20" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1597,7 +1734,7 @@
       <c r="Z20"/>
       <c r="AA20"/>
     </row>
-    <row r="21" spans="2:27" ht="30" customHeight="1">
+    <row r="21" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1625,7 +1762,7 @@
       <c r="Z21"/>
       <c r="AA21"/>
     </row>
-    <row r="22" spans="2:27" ht="30" customHeight="1">
+    <row r="22" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1653,7 +1790,7 @@
       <c r="Z22"/>
       <c r="AA22"/>
     </row>
-    <row r="23" spans="2:27" ht="30" customHeight="1">
+    <row r="23" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1681,7 +1818,7 @@
       <c r="Z23"/>
       <c r="AA23"/>
     </row>
-    <row r="24" spans="2:27" ht="30" customHeight="1">
+    <row r="24" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1709,7 +1846,7 @@
       <c r="Z24"/>
       <c r="AA24"/>
     </row>
-    <row r="25" spans="2:27" ht="30" customHeight="1">
+    <row r="25" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1737,7 +1874,7 @@
       <c r="Z25"/>
       <c r="AA25"/>
     </row>
-    <row r="26" spans="2:27" ht="30" customHeight="1">
+    <row r="26" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1765,7 +1902,7 @@
       <c r="Z26"/>
       <c r="AA26"/>
     </row>
-    <row r="27" spans="2:27" ht="30" customHeight="1">
+    <row r="27" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1793,7 +1930,7 @@
       <c r="Z27"/>
       <c r="AA27"/>
     </row>
-    <row r="28" spans="2:27" ht="30" customHeight="1">
+    <row r="28" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1821,7 +1958,7 @@
       <c r="Z28"/>
       <c r="AA28"/>
     </row>
-    <row r="29" spans="2:27" ht="30" customHeight="1">
+    <row r="29" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1849,7 +1986,7 @@
       <c r="Z29"/>
       <c r="AA29"/>
     </row>
-    <row r="30" spans="2:27" ht="30" customHeight="1">
+    <row r="30" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1893,61 +2030,87 @@
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="H5:AK13">
-    <cfRule type="expression" dxfId="9" priority="1">
+  <conditionalFormatting sqref="H5:AK5 H6:AD6 AG6:AK6 H7:AK13">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="16" priority="3">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="15" priority="4">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="13" priority="6">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="12" priority="7">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:BO31">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:AK4">
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AE6">
+    <cfRule type="expression" dxfId="7" priority="21">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="22">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="23">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="24">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="25">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="26">
+      <formula>AF$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="27">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="28">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="16">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5&#10;" sqref="B3:B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E4" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danhpham/Desktop/milestone2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE86495-3E6F-8649-86DB-11C4CCAC51C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C201515F-8DED-2B42-80C0-61AB5553A64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,6 +553,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -600,12 +606,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1132,7 +1132,7 @@
   <dimension ref="B1:AP30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AD8" sqref="AD8"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1155,13 +1155,13 @@
       <c r="G1" s="13"/>
     </row>
     <row r="2" spans="2:42" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1169,66 +1169,66 @@
         <v>1</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="32"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="18"/>
-      <c r="V2" s="22" t="s">
+      <c r="V2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="34"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="36"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="35" t="s">
+      <c r="AA2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="37"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="39"/>
       <c r="AH2" s="20"/>
-      <c r="AI2" s="22" t="s">
+      <c r="AI2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
     </row>
     <row r="3" spans="2:42" s="12" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="31" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1255,12 +1255,12 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1417,42 +1417,42 @@
         <v>22</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E8" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G8" s="8">
         <v>1</v>
       </c>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="39"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="23"/>
     </row>
     <row r="9" spans="2:42" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F9" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="8">
         <v>1</v>

--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danhpham/Desktop/milestone2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE86495-3E6F-8649-86DB-11C4CCAC51C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -28,6 +22,7 @@
     <definedName name="TitleRegion..BO60">'Project Planner'!$B$3:$B$4</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -186,8 +181,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -553,6 +548,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -601,32 +602,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="% complete" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="% complete (beyond plan) legend" xfId="18" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Actual (beyond plan) legend" xfId="17" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Actual legend" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="% complete" xfId="16"/>
+    <cellStyle name="% complete (beyond plan) legend" xfId="18"/>
+    <cellStyle name="Activity" xfId="2"/>
+    <cellStyle name="Actual (beyond plan) legend" xfId="17"/>
+    <cellStyle name="Actual legend" xfId="15"/>
     <cellStyle name="Explanatory Text" xfId="12" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Label" xfId="5"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Period Headers" xfId="3" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Period Highlight Control" xfId="7" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Period Value" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Plan legend" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Percent Complete" xfId="6"/>
+    <cellStyle name="Period Headers" xfId="3"/>
+    <cellStyle name="Period Highlight Control" xfId="7"/>
+    <cellStyle name="Period Value" xfId="13"/>
+    <cellStyle name="Plan legend" xfId="14"/>
+    <cellStyle name="Project Headers" xfId="4"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="18">
@@ -1124,27 +1119,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AP30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AD8" sqref="AD8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
-    <col min="3" max="6" width="11.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="4" customWidth="1"/>
-    <col min="8" max="27" width="2.6640625" style="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
+    <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
+    <col min="8" max="27" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:42" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="2:42" ht="60" customHeight="1" thickBot="1">
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1154,14 +1149,14 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="2:42" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="2:42" ht="21" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1169,66 +1164,66 @@
         <v>1</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="32"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="18"/>
-      <c r="V2" s="22" t="s">
+      <c r="V2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="34"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="36"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="35" t="s">
+      <c r="AA2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="37"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="39"/>
       <c r="AH2" s="20"/>
-      <c r="AI2" s="22" t="s">
+      <c r="AI2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
-    </row>
-    <row r="3" spans="2:42" s="12" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="25" t="s">
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+    </row>
+    <row r="3" spans="2:42" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1">
+      <c r="B3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="31" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1254,13 +1249,13 @@
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
     </row>
-    <row r="4" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+    <row r="4" spans="2:42" ht="15.75" customHeight="1">
+      <c r="B4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1352,7 +1347,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:42" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:42" ht="45" customHeight="1">
       <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
@@ -1372,47 +1367,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:42" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:42" ht="69" customHeight="1">
       <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D6" s="7">
+        <v>6</v>
+      </c>
+      <c r="E6" s="7">
+        <v>18</v>
+      </c>
+      <c r="F6" s="7">
         <v>4</v>
-      </c>
-      <c r="E6" s="7">
-        <v>24</v>
-      </c>
-      <c r="F6" s="7">
-        <v>2</v>
       </c>
       <c r="G6" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:42" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:42" ht="77.25" customHeight="1">
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E7" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:42" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:42" ht="74.25" customHeight="1">
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
@@ -1431,14 +1426,14 @@
       <c r="G8" s="8">
         <v>1</v>
       </c>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="39"/>
-    </row>
-    <row r="9" spans="2:42" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="23"/>
+    </row>
+    <row r="9" spans="2:42" ht="82.5" customHeight="1">
       <c r="B9" s="6" t="s">
         <v>23</v>
       </c>
@@ -1458,7 +1453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:42" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:42" ht="86.25" customHeight="1">
       <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
@@ -1478,7 +1473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:42" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:42" ht="76.5" customHeight="1">
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
@@ -1498,7 +1493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:42" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:42" ht="89.25" customHeight="1">
       <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
@@ -1518,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:42" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:42" ht="94.5" customHeight="1">
       <c r="B13" s="6" t="s">
         <v>17</v>
       </c>
@@ -1538,7 +1533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:42" ht="30" customHeight="1">
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1566,7 +1561,7 @@
       <c r="Z14"/>
       <c r="AA14"/>
     </row>
-    <row r="15" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:42" ht="30" customHeight="1">
       <c r="B15" s="6"/>
       <c r="C15" s="9"/>
       <c r="D15" s="7"/>
@@ -1594,7 +1589,7 @@
       <c r="Z15"/>
       <c r="AA15"/>
     </row>
-    <row r="16" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:42" ht="30" customHeight="1">
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1622,7 +1617,7 @@
       <c r="Z16"/>
       <c r="AA16"/>
     </row>
-    <row r="17" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:27" ht="30" customHeight="1">
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1650,7 +1645,7 @@
       <c r="Z17"/>
       <c r="AA17"/>
     </row>
-    <row r="18" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:27" ht="30" customHeight="1">
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1678,7 +1673,7 @@
       <c r="Z18"/>
       <c r="AA18"/>
     </row>
-    <row r="19" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:27" ht="30" customHeight="1">
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1706,7 +1701,7 @@
       <c r="Z19"/>
       <c r="AA19"/>
     </row>
-    <row r="20" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:27" ht="30" customHeight="1">
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1734,7 +1729,7 @@
       <c r="Z20"/>
       <c r="AA20"/>
     </row>
-    <row r="21" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:27" ht="30" customHeight="1">
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1762,7 +1757,7 @@
       <c r="Z21"/>
       <c r="AA21"/>
     </row>
-    <row r="22" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:27" ht="30" customHeight="1">
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1790,7 +1785,7 @@
       <c r="Z22"/>
       <c r="AA22"/>
     </row>
-    <row r="23" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:27" ht="30" customHeight="1">
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1818,7 +1813,7 @@
       <c r="Z23"/>
       <c r="AA23"/>
     </row>
-    <row r="24" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:27" ht="30" customHeight="1">
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1846,7 +1841,7 @@
       <c r="Z24"/>
       <c r="AA24"/>
     </row>
-    <row r="25" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:27" ht="30" customHeight="1">
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1874,7 +1869,7 @@
       <c r="Z25"/>
       <c r="AA25"/>
     </row>
-    <row r="26" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:27" ht="30" customHeight="1">
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1902,7 +1897,7 @@
       <c r="Z26"/>
       <c r="AA26"/>
     </row>
-    <row r="27" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:27" ht="30" customHeight="1">
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1930,7 +1925,7 @@
       <c r="Z27"/>
       <c r="AA27"/>
     </row>
-    <row r="28" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:27" ht="30" customHeight="1">
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1958,7 +1953,7 @@
       <c r="Z28"/>
       <c r="AA28"/>
     </row>
-    <row r="29" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:27" ht="30" customHeight="1">
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1986,7 +1981,7 @@
       <c r="Z29"/>
       <c r="AA29"/>
     </row>
-    <row r="30" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:27" ht="30" customHeight="1">
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -2093,24 +2088,24 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E4" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5&#10;" sqref="B3:B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -1125,8 +1125,8 @@
   </sheetPr>
   <dimension ref="B1:AP30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E10" sqref="E9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="30" customHeight="1"/>
@@ -1460,13 +1460,13 @@
         <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E10" s="7">
         <v>24</v>
       </c>
       <c r="F10" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G10" s="8">
         <v>0.75</v>
@@ -1480,13 +1480,13 @@
         <v>19</v>
       </c>
       <c r="D11" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E11" s="7">
         <v>24</v>
       </c>
       <c r="F11" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G11" s="8">
         <v>0.5</v>

--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danhpham/Desktop/milestone2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C500CA-C5CD-AA49-84C7-1C4AABA59875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Project Planner</t>
   </si>
@@ -176,12 +182,15 @@
   <si>
     <t>Create time blocks</t>
   </si>
+  <si>
+    <t>Delete flash card</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -603,24 +612,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="% complete" xfId="16"/>
-    <cellStyle name="% complete (beyond plan) legend" xfId="18"/>
-    <cellStyle name="Activity" xfId="2"/>
-    <cellStyle name="Actual (beyond plan) legend" xfId="17"/>
-    <cellStyle name="Actual legend" xfId="15"/>
+    <cellStyle name="% complete" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="% complete (beyond plan) legend" xfId="18" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Actual (beyond plan) legend" xfId="17" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Actual legend" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Explanatory Text" xfId="12" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Label" xfId="5"/>
+    <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Percent Complete" xfId="6"/>
-    <cellStyle name="Period Headers" xfId="3"/>
-    <cellStyle name="Period Highlight Control" xfId="7"/>
-    <cellStyle name="Period Value" xfId="13"/>
-    <cellStyle name="Plan legend" xfId="14"/>
-    <cellStyle name="Project Headers" xfId="4"/>
+    <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Period Headers" xfId="3" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Period Highlight Control" xfId="7" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Period Value" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Plan legend" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="18">
@@ -1118,27 +1127,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AP30"/>
+  <dimension ref="B1:AP31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E10" sqref="E9:E10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AI8" sqref="AI8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
-    <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
-    <col min="8" max="27" width="2.625" style="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
+    <col min="3" max="6" width="11.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="4" customWidth="1"/>
+    <col min="8" max="27" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:42" ht="60" customHeight="1" thickBot="1">
+    <row r="1" spans="2:42" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1148,7 +1157,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="2:42" ht="21" customHeight="1" thickTop="1" thickBot="1">
+    <row r="2" spans="2:42" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="26" t="s">
         <v>13</v>
       </c>
@@ -1206,7 +1215,7 @@
       <c r="AO2" s="25"/>
       <c r="AP2" s="25"/>
     </row>
-    <row r="3" spans="2:42" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1">
+    <row r="3" spans="2:42" s="12" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B3" s="27" t="s">
         <v>14</v>
       </c>
@@ -1248,7 +1257,7 @@
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
     </row>
-    <row r="4" spans="2:42" ht="15.75" customHeight="1">
+    <row r="4" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="28"/>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -1346,7 +1355,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:42" ht="45" customHeight="1">
+    <row r="5" spans="2:42" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1360,13 +1369,13 @@
         <v>18</v>
       </c>
       <c r="F5" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:42" ht="69" customHeight="1">
+    <row r="6" spans="2:42" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
@@ -1380,101 +1389,101 @@
         <v>18</v>
       </c>
       <c r="F6" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:42" ht="77.25" customHeight="1">
+    <row r="7" spans="2:42" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="7">
+        <v>21</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="7">
+        <v>23</v>
+      </c>
+      <c r="F7" s="7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:42" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="7">
-        <v>22</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="C8" s="7">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7">
+        <v>5</v>
+      </c>
+      <c r="E8" s="7">
+        <v>23</v>
+      </c>
+      <c r="F8" s="7">
         <v>4</v>
-      </c>
-      <c r="E7" s="7">
-        <v>24</v>
-      </c>
-      <c r="F7" s="7">
-        <v>2</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:42" ht="74.25" customHeight="1">
-      <c r="B8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="7">
-        <v>22</v>
-      </c>
-      <c r="D8" s="7">
-        <v>7</v>
-      </c>
-      <c r="E8" s="7">
-        <v>22</v>
-      </c>
-      <c r="F8" s="7">
-        <v>7</v>
       </c>
       <c r="G8" s="8">
         <v>1</v>
       </c>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="23"/>
-      <c r="AD8" s="23"/>
-      <c r="AE8" s="23"/>
-      <c r="AF8" s="23"/>
-    </row>
-    <row r="9" spans="2:42" ht="82.5" customHeight="1">
+    </row>
+    <row r="9" spans="2:42" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
         <v>22</v>
       </c>
       <c r="D9" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E9" s="7">
         <v>22</v>
       </c>
       <c r="F9" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G9" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:42" ht="86.25" customHeight="1">
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+    </row>
+    <row r="10" spans="2:42" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7">
         <v>22</v>
       </c>
-      <c r="C10" s="7">
-        <v>19</v>
-      </c>
       <c r="D10" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E10" s="7">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F10" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G10" s="8">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="11" spans="2:42" ht="76.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:42" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7">
         <v>19</v>
@@ -1489,80 +1498,72 @@
         <v>8</v>
       </c>
       <c r="G11" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12" spans="2:42" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="7">
+        <v>19</v>
+      </c>
+      <c r="D12" s="7">
+        <v>5</v>
+      </c>
+      <c r="E12" s="7">
+        <v>24</v>
+      </c>
+      <c r="F12" s="7">
+        <v>8</v>
+      </c>
+      <c r="G12" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="2:42" ht="89.25" customHeight="1">
-      <c r="B12" s="6" t="s">
+    <row r="13" spans="2:42" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C13" s="7">
         <v>22</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D13" s="7">
         <v>8</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E13" s="7">
         <v>22</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F13" s="7">
         <v>7</v>
-      </c>
-      <c r="G12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:42" ht="94.5" customHeight="1">
-      <c r="B13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="7">
-        <v>18</v>
-      </c>
-      <c r="D13" s="7">
-        <v>10</v>
-      </c>
-      <c r="E13" s="7">
-        <v>19</v>
-      </c>
-      <c r="F13" s="7">
-        <v>9</v>
       </c>
       <c r="G13" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:42" ht="30" customHeight="1">
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14"/>
-      <c r="AA14"/>
-    </row>
-    <row r="15" spans="2:42" ht="30" customHeight="1">
+    <row r="14" spans="2:42" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="7">
+        <v>18</v>
+      </c>
+      <c r="D14" s="7">
+        <v>10</v>
+      </c>
+      <c r="E14" s="7">
+        <v>19</v>
+      </c>
+      <c r="F14" s="7">
+        <v>9</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
-      <c r="C15" s="9"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -1588,9 +1589,9 @@
       <c r="Z15"/>
       <c r="AA15"/>
     </row>
-    <row r="16" spans="2:42" ht="30" customHeight="1">
+    <row r="16" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -1616,7 +1617,7 @@
       <c r="Z16"/>
       <c r="AA16"/>
     </row>
-    <row r="17" spans="2:27" ht="30" customHeight="1">
+    <row r="17" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1644,7 +1645,7 @@
       <c r="Z17"/>
       <c r="AA17"/>
     </row>
-    <row r="18" spans="2:27" ht="30" customHeight="1">
+    <row r="18" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1672,7 +1673,7 @@
       <c r="Z18"/>
       <c r="AA18"/>
     </row>
-    <row r="19" spans="2:27" ht="30" customHeight="1">
+    <row r="19" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1700,7 +1701,7 @@
       <c r="Z19"/>
       <c r="AA19"/>
     </row>
-    <row r="20" spans="2:27" ht="30" customHeight="1">
+    <row r="20" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1728,7 +1729,7 @@
       <c r="Z20"/>
       <c r="AA20"/>
     </row>
-    <row r="21" spans="2:27" ht="30" customHeight="1">
+    <row r="21" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1756,7 +1757,7 @@
       <c r="Z21"/>
       <c r="AA21"/>
     </row>
-    <row r="22" spans="2:27" ht="30" customHeight="1">
+    <row r="22" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1784,7 +1785,7 @@
       <c r="Z22"/>
       <c r="AA22"/>
     </row>
-    <row r="23" spans="2:27" ht="30" customHeight="1">
+    <row r="23" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1812,7 +1813,7 @@
       <c r="Z23"/>
       <c r="AA23"/>
     </row>
-    <row r="24" spans="2:27" ht="30" customHeight="1">
+    <row r="24" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1840,7 +1841,7 @@
       <c r="Z24"/>
       <c r="AA24"/>
     </row>
-    <row r="25" spans="2:27" ht="30" customHeight="1">
+    <row r="25" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1868,7 +1869,7 @@
       <c r="Z25"/>
       <c r="AA25"/>
     </row>
-    <row r="26" spans="2:27" ht="30" customHeight="1">
+    <row r="26" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1896,7 +1897,7 @@
       <c r="Z26"/>
       <c r="AA26"/>
     </row>
-    <row r="27" spans="2:27" ht="30" customHeight="1">
+    <row r="27" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1924,7 +1925,7 @@
       <c r="Z27"/>
       <c r="AA27"/>
     </row>
-    <row r="28" spans="2:27" ht="30" customHeight="1">
+    <row r="28" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1952,7 +1953,7 @@
       <c r="Z28"/>
       <c r="AA28"/>
     </row>
-    <row r="29" spans="2:27" ht="30" customHeight="1">
+    <row r="29" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1980,7 +1981,7 @@
       <c r="Z29"/>
       <c r="AA29"/>
     </row>
-    <row r="30" spans="2:27" ht="30" customHeight="1">
+    <row r="30" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -2008,6 +2009,34 @@
       <c r="Z30"/>
       <c r="AA30"/>
     </row>
+    <row r="31" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="8"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="AI2:AP2"/>
@@ -2024,7 +2053,7 @@
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="H5:AK5 H6:AD6 AG6:AK6 H7:AK13">
+  <conditionalFormatting sqref="H5:AK5 H6:AD7 AG6:AK7 H8:AK14">
     <cfRule type="expression" dxfId="17" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -2050,7 +2079,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:BO31">
+  <conditionalFormatting sqref="B32:BO32">
     <cfRule type="expression" dxfId="9" priority="2">
       <formula>TRUE</formula>
     </cfRule>
@@ -2060,7 +2089,7 @@
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE6">
+  <conditionalFormatting sqref="AE6:AE7">
     <cfRule type="expression" dxfId="7" priority="21">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -2087,24 +2116,24 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5&#10;" sqref="B3:B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E4" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danhpham/Desktop/milestone2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C500CA-C5CD-AA49-84C7-1C4AABA59875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -28,6 +22,7 @@
     <definedName name="TitleRegion..BO60">'Project Planner'!$B$3:$B$4</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -37,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Project Planner</t>
   </si>
@@ -185,12 +180,15 @@
   <si>
     <t>Delete flash card</t>
   </si>
+  <si>
+    <t>Ask question via chat</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -612,27 +610,293 @@
     </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="% complete" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="% complete (beyond plan) legend" xfId="18" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Actual (beyond plan) legend" xfId="17" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Actual legend" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="% complete" xfId="16"/>
+    <cellStyle name="% complete (beyond plan) legend" xfId="18"/>
+    <cellStyle name="Activity" xfId="2"/>
+    <cellStyle name="Actual (beyond plan) legend" xfId="17"/>
+    <cellStyle name="Actual legend" xfId="15"/>
     <cellStyle name="Explanatory Text" xfId="12" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Label" xfId="5"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Period Headers" xfId="3" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Period Highlight Control" xfId="7" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Period Value" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Plan legend" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Percent Complete" xfId="6"/>
+    <cellStyle name="Period Headers" xfId="3"/>
+    <cellStyle name="Period Highlight Control" xfId="7"/>
+    <cellStyle name="Period Value" xfId="13"/>
+    <cellStyle name="Plan legend" xfId="14"/>
+    <cellStyle name="Project Headers" xfId="4"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1127,27 +1391,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AP31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AI8" sqref="AI8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
-    <col min="3" max="6" width="11.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="4" customWidth="1"/>
-    <col min="8" max="27" width="2.6640625" style="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
+    <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
+    <col min="8" max="27" width="2.625" style="1"/>
+    <col min="39" max="39" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:42" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="2:42" ht="60" customHeight="1" thickBot="1">
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1157,7 +1422,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="2:42" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:42" ht="21" customHeight="1" thickTop="1" thickBot="1">
       <c r="B2" s="26" t="s">
         <v>13</v>
       </c>
@@ -1215,7 +1480,7 @@
       <c r="AO2" s="25"/>
       <c r="AP2" s="25"/>
     </row>
-    <row r="3" spans="2:42" s="12" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:42" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1">
       <c r="B3" s="27" t="s">
         <v>14</v>
       </c>
@@ -1257,7 +1522,7 @@
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
     </row>
-    <row r="4" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:42" ht="15.75" customHeight="1">
       <c r="B4" s="28"/>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -1354,8 +1619,11 @@
       <c r="AK4" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="2:42" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+    </row>
+    <row r="5" spans="2:42" ht="45" customHeight="1">
       <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1375,7 +1643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:42" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:42" ht="69" customHeight="1">
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
@@ -1395,7 +1663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:42" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:42" ht="69" customHeight="1">
       <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
@@ -1415,7 +1683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:42" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:42" ht="77.25" customHeight="1">
       <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1435,7 +1703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:42" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:42" ht="74.25" customHeight="1">
       <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
@@ -1461,7 +1729,7 @@
       <c r="AE9" s="23"/>
       <c r="AF9" s="23"/>
     </row>
-    <row r="10" spans="2:42" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:42" ht="82.5" customHeight="1">
       <c r="B10" s="6" t="s">
         <v>21</v>
       </c>
@@ -1481,7 +1749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:42" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:42" ht="86.25" customHeight="1">
       <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
@@ -1501,7 +1769,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="2:42" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:42" ht="76.5" customHeight="1">
       <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
@@ -1521,7 +1789,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="2:42" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:42" ht="89.25" customHeight="1">
       <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
@@ -1541,7 +1809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:42" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:42" ht="94.5" customHeight="1">
       <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
@@ -1561,35 +1829,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15"/>
-      <c r="AA15"/>
-    </row>
-    <row r="16" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:42" ht="107.25" customHeight="1">
+      <c r="B15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="7">
+        <v>18</v>
+      </c>
+      <c r="D15" s="7">
+        <v>10</v>
+      </c>
+      <c r="E15" s="7">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7">
+        <v>7</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:42" ht="30" customHeight="1">
       <c r="B16" s="6"/>
       <c r="C16" s="9"/>
       <c r="D16" s="7"/>
@@ -1617,7 +1877,7 @@
       <c r="Z16"/>
       <c r="AA16"/>
     </row>
-    <row r="17" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:27" ht="30" customHeight="1">
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1645,7 +1905,7 @@
       <c r="Z17"/>
       <c r="AA17"/>
     </row>
-    <row r="18" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:27" ht="30" customHeight="1">
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1673,7 +1933,7 @@
       <c r="Z18"/>
       <c r="AA18"/>
     </row>
-    <row r="19" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:27" ht="30" customHeight="1">
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1701,7 +1961,7 @@
       <c r="Z19"/>
       <c r="AA19"/>
     </row>
-    <row r="20" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:27" ht="30" customHeight="1">
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1729,7 +1989,7 @@
       <c r="Z20"/>
       <c r="AA20"/>
     </row>
-    <row r="21" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:27" ht="30" customHeight="1">
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1757,7 +2017,7 @@
       <c r="Z21"/>
       <c r="AA21"/>
     </row>
-    <row r="22" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:27" ht="30" customHeight="1">
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1785,7 +2045,7 @@
       <c r="Z22"/>
       <c r="AA22"/>
     </row>
-    <row r="23" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:27" ht="30" customHeight="1">
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1813,7 +2073,7 @@
       <c r="Z23"/>
       <c r="AA23"/>
     </row>
-    <row r="24" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:27" ht="30" customHeight="1">
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1841,7 +2101,7 @@
       <c r="Z24"/>
       <c r="AA24"/>
     </row>
-    <row r="25" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:27" ht="30" customHeight="1">
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1869,7 +2129,7 @@
       <c r="Z25"/>
       <c r="AA25"/>
     </row>
-    <row r="26" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:27" ht="30" customHeight="1">
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1897,7 +2157,7 @@
       <c r="Z26"/>
       <c r="AA26"/>
     </row>
-    <row r="27" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:27" ht="30" customHeight="1">
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1925,7 +2185,7 @@
       <c r="Z27"/>
       <c r="AA27"/>
     </row>
-    <row r="28" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:27" ht="30" customHeight="1">
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1953,7 +2213,7 @@
       <c r="Z28"/>
       <c r="AA28"/>
     </row>
-    <row r="29" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:27" ht="30" customHeight="1">
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1981,7 +2241,7 @@
       <c r="Z29"/>
       <c r="AA29"/>
     </row>
-    <row r="30" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:27" ht="30" customHeight="1">
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -2009,7 +2269,7 @@
       <c r="Z30"/>
       <c r="AA30"/>
     </row>
-    <row r="31" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:27" ht="30" customHeight="1">
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -2054,7 +2314,69 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="H5:AK5 H6:AD7 AG6:AK7 H8:AK14">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="35" priority="10">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="12">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="13">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="14">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="15">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="16">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="20">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="21">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:BO32">
+    <cfRule type="expression" dxfId="27" priority="11">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:AK4">
+    <cfRule type="expression" dxfId="26" priority="17">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE6:AE7">
+    <cfRule type="expression" dxfId="25" priority="30">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="31">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="32">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="33">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="34">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="35">
+      <formula>AF$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="36">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="37">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15:AK15">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>PercentComplete</formula>
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="3">
@@ -2072,68 +2394,37 @@
     <cfRule type="expression" dxfId="12" priority="7">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="11" priority="8">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="10" priority="9">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:BO32">
-    <cfRule type="expression" dxfId="9" priority="2">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:AK4">
-    <cfRule type="expression" dxfId="8" priority="8">
-      <formula>H$4=period_selected</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE6:AE7">
-    <cfRule type="expression" dxfId="7" priority="21">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="22">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="23">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="24">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="25">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="26">
-      <formula>AF$4=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="27">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="28">
-      <formula>MOD(COLUMN(),2)=0</formula>
+  <conditionalFormatting sqref="AL4:AN4">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AL$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E4" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5&#10;" sqref="B3:B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
